--- a/LLM GPU Requirements.xlsx
+++ b/LLM GPU Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servicemanagementgroup-my.sharepoint.com/personal/knitzschke_smg_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{9B29096E-43E7-4195-BE40-3935935F8413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7294679D-D2F8-4F05-BDB3-754B08B779E1}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{9B29096E-43E7-4195-BE40-3935935F8413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5904D2-BE78-4962-B99B-562DFDAFB4B8}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1470" windowWidth="30195" windowHeight="17070" xr2:uid="{CE07B814-DAC5-46CD-8FF9-79617F77A039}"/>
+    <workbookView xWindow="6180" yWindow="930" windowWidth="25740" windowHeight="17070" xr2:uid="{CE07B814-DAC5-46CD-8FF9-79617F77A039}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>GM VRAM</t>
   </si>
@@ -168,14 +168,43 @@
     <t>VRAM Needed</t>
   </si>
   <si>
-    <t>vLLM VRAM available (standard 80% KV Cache)</t>
+    <t>Multiple vLLM Instance single GPU</t>
+  </si>
+  <si>
+    <r>
+      <t>vLLM VRAM available (standard KV Cache) (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>above</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value)</t>
+    </r>
+  </si>
+  <si>
+    <t>KV Cache %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +228,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +261,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -235,10 +277,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -263,9 +306,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,16 +330,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>501753</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>48892</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111228</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +362,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9410700" y="2266950"/>
+          <a:off x="8115300" y="2505075"/>
           <a:ext cx="5330928" cy="4830442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -646,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86EC5D6-1DA2-4269-A8DD-EBBE1BB437E2}">
-  <dimension ref="A3:H30"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,102 +705,145 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="7" width="30" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>70</v>
+      </c>
+      <c r="C3" s="7">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <f>((B3*4)/(32/C3))*1.2</f>
+        <v>168</v>
+      </c>
+      <c r="E3" s="8" t="str" cm="1">
+        <f t="array" ref="E3">_xlfn.TEXTJOIN(", ", TRUE, IF($C$11:$C$30&gt;=$D3, $A$11:$A$30, ""))</f>
+        <v/>
+      </c>
+      <c r="F3" s="8" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*2&gt;=$D3, $A$11:$A$30, ""))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="str" cm="1">
+        <f t="array" ref="G3">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*3&gt;=$D3, $A$11:$A$30, ""))</f>
+        <v>1, 2, 3, 4</v>
+      </c>
+      <c r="H3" s="8" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.TEXTJOIN(", ", TRUE, IF(($D$11:$D$30)&gt;=$D3*2, $A$11:$A$30, ""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
         <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>70</v>
       </c>
       <c r="C4" s="7">
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <f>((B4*4)/(32/C4))*1.2</f>
-        <v>168</v>
+        <f t="shared" ref="D4:D6" si="0">((B4*4)/(32/C4))*1.2</f>
+        <v>4.8</v>
       </c>
       <c r="E4" s="8" t="str" cm="1">
         <f t="array" ref="E4">_xlfn.TEXTJOIN(", ", TRUE, IF($C$11:$C$30&gt;=$D4, $A$11:$A$30, ""))</f>
-        <v/>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
       </c>
       <c r="F4" s="8" t="str" cm="1">
         <f t="array" ref="F4">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*2&gt;=$D4, $A$11:$A$30, ""))</f>
-        <v>1</v>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
       </c>
       <c r="G4" s="8" t="str" cm="1">
         <f t="array" ref="G4">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*3&gt;=$D4, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4</v>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
+      </c>
+      <c r="H4" s="8" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.TEXTJOIN(", ", TRUE, IF(($D$11:$D$30)&gt;=$D4*2, $A$11:$A$30, ""))</f>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:D7" si="0">((B5*4)/(32/C5))*1.2</f>
-        <v>4.8</v>
+        <f t="shared" si="0"/>
+        <v>16.8</v>
       </c>
       <c r="E5" s="8" t="str" cm="1">
         <f t="array" ref="E5">_xlfn.TEXTJOIN(", ", TRUE, IF($C$11:$C$30&gt;=$D5, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14</v>
       </c>
       <c r="F5" s="8" t="str" cm="1">
         <f t="array" ref="F5">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*2&gt;=$D5, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
       </c>
       <c r="G5" s="8" t="str" cm="1">
         <f t="array" ref="G5">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*3&gt;=$D5, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20</v>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
+      </c>
+      <c r="H5" s="8" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.TEXTJOIN(", ", TRUE, IF(($D$11:$D$30)&gt;=$D5*2, $A$11:$A$30, ""))</f>
+        <v>1, 2, 3, 4, 5, 6, 7, 8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7">
-        <v>7</v>
+        <v>12.2</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>29.279999999999998</v>
       </c>
       <c r="E6" s="8" t="str" cm="1">
         <f t="array" ref="E6">_xlfn.TEXTJOIN(", ", TRUE, IF($C$11:$C$30&gt;=$D6, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14</v>
+        <v>1, 2, 3, 4, 5, 6, 7, 8, 9</v>
       </c>
       <c r="F6" s="8" t="str" cm="1">
         <f t="array" ref="F6">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*2&gt;=$D6, $A$11:$A$30, ""))</f>
@@ -764,46 +853,31 @@
         <f t="array" ref="G6">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*3&gt;=$D6, $A$11:$A$30, ""))</f>
         <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="7">
-        <v>12.2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>29.279999999999998</v>
-      </c>
-      <c r="E7" s="8" t="str" cm="1">
-        <f t="array" ref="E7">_xlfn.TEXTJOIN(", ", TRUE, IF($C$11:$C$30&gt;=$D7, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9</v>
-      </c>
-      <c r="F7" s="8" t="str" cm="1">
-        <f t="array" ref="F7">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*2&gt;=$D7, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
-      </c>
-      <c r="G7" s="8" t="str" cm="1">
-        <f t="array" ref="G7">_xlfn.TEXTJOIN(", ", TRUE, IF(($C$11:$C$30)*3&gt;=$D7, $A$11:$A$30, ""))</f>
-        <v>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="H6" s="8" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.TEXTJOIN(", ", TRUE, IF(($D$11:$D$30)&gt;=$D6*2, $A$11:$A$30, ""))</f>
+        <v>1, 2, 3, 4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -814,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
@@ -832,8 +906,8 @@
         <v>94</v>
       </c>
       <c r="D11">
-        <f>C11*0.8</f>
-        <v>75.2</v>
+        <f>C11*$D$9</f>
+        <v>79.899999999999991</v>
       </c>
       <c r="E11">
         <v>16896</v>
@@ -851,8 +925,8 @@
         <v>80</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D30" si="1">C12*0.8</f>
-        <v>64</v>
+        <f t="shared" ref="D12:D30" si="1">C12*$D$9</f>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>6912</v>
@@ -871,7 +945,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>16896</v>
@@ -890,7 +964,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>6912</v>
@@ -909,7 +983,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>6912</v>
@@ -928,7 +1002,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E16">
         <v>18176</v>
@@ -947,7 +1021,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E17">
         <v>16384</v>
@@ -966,7 +1040,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>38.400000000000006</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E18">
         <v>10752</v>
@@ -985,7 +1059,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>25.6</v>
+        <v>27.2</v>
       </c>
       <c r="E19">
         <v>5120</v>
@@ -1004,7 +1078,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E20">
         <v>10496</v>
@@ -1023,7 +1097,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E21">
         <v>16384</v>
@@ -1042,7 +1116,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E22">
         <v>7680</v>
@@ -1061,7 +1135,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E23">
         <v>3584</v>
@@ -1080,7 +1154,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E24">
         <v>9216</v>
@@ -1099,7 +1173,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E25">
         <v>9728</v>
@@ -1118,7 +1192,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E26">
         <v>5120</v>
@@ -1137,7 +1211,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E27">
         <v>2048</v>
@@ -1156,7 +1230,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E28">
         <v>4096</v>
@@ -1175,7 +1249,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E29">
         <v>3584</v>
@@ -1194,7 +1268,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E30">
         <v>3072</v>
@@ -1203,7 +1277,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
